--- a/outputs/SA/WELFAKE_RESULTS.xlsx
+++ b/outputs/SA/WELFAKE_RESULTS.xlsx
@@ -502,10 +502,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8862500000000001</v>
+        <v>0.8843</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7013999999999999</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="3">
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9945499999999999</v>
+        <v>0.99465</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9264000000000001</v>
+        <v>0.9240000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9952</v>
+        <v>0.99595</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9276000000000002</v>
+        <v>0.922</v>
       </c>
     </row>
   </sheetData>
